--- a/www.findstars.cn/data.xlsx
+++ b/www.findstars.cn/data.xlsx
@@ -675,22 +675,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>蓓优妮塔2Bayonetta 2</t>
+          <t>超级马力欧兄弟 惊奇Super Mario Bros. Wonder</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12.4GB</t>
+          <t>4.5GB</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9h</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -702,22 +702,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>极乐迪斯科 最终剪辑版Disco Elysium - The Final Cut</t>
+          <t>蓓优妮塔2Bayonetta 2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6.5GB</t>
+          <t>12.4GB</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>9h</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -729,22 +729,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>马力欧卡丁车8 豪华版Mario Kart 8 Deluxe</t>
+          <t>极乐迪斯科 最终剪辑版Disco Elysium - The Final Cut</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6.9G</t>
+          <t>6.5GB</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.2h</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -756,22 +756,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>死亡细胞Dead Cells</t>
+          <t>马力欧卡丁车8 豪华版Mario Kart 8 Deluxe</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.5GB</t>
+          <t>6.9G</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>14h</t>
+          <t>6.2h</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -783,22 +783,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>洞窟探险2Spelunky 2</t>
+          <t>死亡细胞Dead Cells</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>710 MB</t>
+          <t>1.5GB</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>28h</t>
+          <t>14h</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -810,22 +810,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>怪兽远征A Monster's Expedition</t>
+          <t>洞窟探险2Spelunky 2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>654 MB</t>
+          <t>710 MB</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>9.5h</t>
+          <t>28h</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -837,12 +837,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>蔚蓝Celeste</t>
+          <t>怪兽远征A Monster's Expedition</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.5 GB</t>
+          <t>654 MB</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8.3h</t>
+          <t>9.5h</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -864,49 +864,49 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>女神异闻录4 黄金版Persona 4 Golden</t>
+          <t>蔚蓝Celeste</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>9.1GB</t>
+          <t>1.5 GB</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1-40</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>68.4h</t>
+          <t>8.3h</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>92</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>铲子骑士：无尽宝藏Shovel Knight: Treasure Trove</t>
+          <t>女神异闻录4 黄金版Persona 4 Golden</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>310 MB</t>
+          <t>9.1GB</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>1-40</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>68.4h</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -918,17 +918,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>蒸汽世界 大劫掠 终极版SteamWorld Heist: Ultimate Edition</t>
+          <t>铲子骑士：无尽宝藏Shovel Knight: Treasure Trove</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>261 MB</t>
+          <t>310 MB</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -945,22 +945,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>索尼克：狂欢Sonic Mania</t>
+          <t>蒸汽世界 大劫掠 终极版SteamWorld Heist: Ultimate Edition</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>390 MB</t>
+          <t>261 MB</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5.5h</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -972,22 +972,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>勇者斗恶龙11 S：寻觅逝去的时光 最终版DRAGON QUEST® XI S: Echoes of an Elusive Age – Definitive Edition</t>
+          <t>索尼克：狂欢Sonic Mania</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>14 GB</t>
+          <t>390 MB</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>55.5h</t>
+          <t>5.5h</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -999,12 +999,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>佛罗伦萨Florence</t>
+          <t>勇者斗恶龙11 S：寻觅逝去的时光 最终版DRAGON QUEST® XI S: Echoes of an Elusive Age – Definitive Edition</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>815 MB</t>
+          <t>14 GB</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1014,24 +1014,24 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.7h</t>
+          <t>55.5h</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>精灵与森林 决定版Ori and the Blind Forest: Definitive Edition</t>
+          <t>佛罗伦萨Florence</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3.5 GB</t>
+          <t>815 MB</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>9h</t>
+          <t>0.7h</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1053,12 +1053,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>空洞骑士Hollow Knight</t>
+          <t>精灵与森林 决定版Ori and the Blind Forest: Definitive Edition</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5.3 GB</t>
+          <t>3.5 GB</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>26.6h</t>
+          <t>9h</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1080,12 +1080,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>孤帆远航FAR: Lone Sails</t>
+          <t>空洞骑士Hollow Knight</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2.2GB</t>
+          <t>5.3 GB</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1095,24 +1095,24 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3h</t>
+          <t>26.6h</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>白色霓虹Neon White</t>
+          <t>孤帆远航FAR: Lone Sails</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4.8GB</t>
+          <t>2.2GB</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>11h</t>
+          <t>3h</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1134,12 +1134,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>异度神剑3Xenoblade Chronicles 3</t>
+          <t>白色霓虹Neon White</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>15GB</t>
+          <t>4.8GB</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>61.5h</t>
+          <t>11h</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1161,22 +1161,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>忍者神龟：施耐德的复仇Teenage Mutant Ninja Turtles: Shredder's Revenge</t>
+          <t>异度神剑3Xenoblade Chronicles 3</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>993MB</t>
+          <t>15GB</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1-6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2.7h</t>
+          <t>61.5h</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1188,22 +1188,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>OPUS：龙脉常歌 - 最终版OPUS: Echo of Starsong - Full Bloom Edition</t>
+          <t>忍者神龟：施耐德的复仇Teenage Mutant Ninja Turtles: Shredder's Revenge</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2.3GB</t>
+          <t>993MB</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11.5h</t>
+          <t>2.7h</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1215,12 +1215,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>大神 绝景版ŌKAMI HD</t>
+          <t>OPUS：龙脉常歌 - 最终版OPUS: Echo of Starsong - Full Bloom Edition</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9.2GB</t>
+          <t>2.3GB</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>11.5h</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1242,12 +1242,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>死亡之门Death's Door</t>
+          <t>大神 绝景版ŌKAMI HD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2.7GB</t>
+          <t>9.2GB</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>8.5h</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1269,12 +1269,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>忍者印记Mark of the Ninja: Remastered</t>
+          <t>死亡之门Death's Door</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3.6GB</t>
+          <t>2.7GB</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>7.5h</t>
+          <t>8.5h</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1296,12 +1296,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>火焰纹章：风花雪月Fire Emblem: Three Houses</t>
+          <t>忍者印记Mark of the Ninja: Remastered</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>11.6GB</t>
+          <t>3.6GB</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>49h</t>
+          <t>7.5h</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1323,12 +1323,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>陷阵之志Into the Breach</t>
+          <t>火焰纹章：风花雪月Fire Emblem: Three Houses</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>691MB</t>
+          <t>11.6GB</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5.5h</t>
+          <t>49h</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1350,22 +1350,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>超级马力欧3D世界+狂怒世界Super Mario 3D World + Bowser's Fury</t>
+          <t>陷阵之志Into the Breach</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3.0 GB</t>
+          <t>691MB</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>9.9h</t>
+          <t>5.5h</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1377,22 +1377,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>异度神剑：终极版Xenoblade Chronicles: Definitive Edition</t>
+          <t>超级马力欧3D世界+狂怒世界Super Mario 3D World + Bowser's Fury</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>13.7GB</t>
+          <t>3.0 GB</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>52h</t>
+          <t>9.9h</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1404,49 +1404,49 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>皮克敏 4Pikmin 4</t>
+          <t>异度神剑：终极版Xenoblade Chronicles: Definitive Edition</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>12GB</t>
+          <t>13.7GB</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>14.1h</t>
+          <t>52h</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>89</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>小狐狸冒险TUNIC</t>
+          <t>皮克敏 4Pikmin 4</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2.79GB</t>
+          <t>12GB</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>11.9h</t>
+          <t>14.1h</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1458,22 +1458,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>双人成行（需要两个完整手柄）It Takes Two</t>
+          <t>小狐狸冒险TUNIC</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>9.5GB</t>
+          <t>2.79GB</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>15h</t>
+          <t>11.9h</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1485,22 +1485,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>古树旋律DEEMO</t>
+          <t>双人成行（需要两个完整手柄）It Takes Two</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4.4G</t>
+          <t>9.5GB</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>9.5h</t>
+          <t>15h</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1512,12 +1512,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>蒸汽世界：挖掘 2SteamWorld Dig 2</t>
+          <t>古树旋律DEEMO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>256 MB</t>
+          <t>4.4G</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>7h</t>
+          <t>9.5h</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1539,22 +1539,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>暗黑破坏神 III：永恒之战版Diablo III: Eternal Collection</t>
+          <t>蒸汽世界：挖掘 2SteamWorld Dig 2</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>14.4 GB</t>
+          <t>256 MB</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>20.5h</t>
+          <t>7h</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1566,12 +1566,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>怪物猎人:崛起MONSTER HUNTER RISE</t>
+          <t>暗黑破坏神 III：永恒之战版Diablo III: Eternal Collection</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>17.9 GB</t>
+          <t>14.4 GB</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>21.3h</t>
+          <t>20.5h</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1593,22 +1593,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>密特罗德 生存恐惧Metroid Dread</t>
+          <t>怪物猎人:崛起MONSTER HUNTER RISE</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6.7GB</t>
+          <t>17.9 GB</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>8.5h</t>
+          <t>21.3h</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1620,22 +1620,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>无视UNSIGHTED</t>
+          <t>密特罗德 生存恐惧Metroid Dread</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2.5 GB</t>
+          <t>6.7GB</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8.5h</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1755,22 +1755,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>小眷灵Tinykin</t>
+          <t>吸血鬼幸存者Vampire Survivors</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2.12GB</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>6h</t>
+          <t>11.5h</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1782,12 +1782,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>皇家骑士团：重生Tactics Ogre: Reborn</t>
+          <t>小眷灵Tinykin</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6.41GB</t>
+          <t>2.12GB</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>56.6h</t>
+          <t>6h</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1809,12 +1809,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>双点大学Two Point Campus</t>
+          <t>皇家骑士团：重生Tactics Ogre: Reborn</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1.7GB</t>
+          <t>6.41GB</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>31h</t>
+          <t>56.6h</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1836,12 +1836,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>无人深空No Man's Sky</t>
+          <t>双点大学Two Point Campus</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3.1GB</t>
+          <t>1.7GB</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>30.4h</t>
+          <t>31h</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1863,22 +1863,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>我的世界 基岩版Minecraft</t>
+          <t>无人深空No Man's Sky</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1.0 GB</t>
+          <t>3.1GB</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1-8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>69.9h</t>
+          <t>30.4h</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1890,22 +1890,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>晶体管Transistor</t>
+          <t>我的世界 基岩版Minecraft</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3.1G</t>
+          <t>1.0 GB</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1-8</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>6h</t>
+          <t>69.9h</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1917,12 +1917,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>拆包装Unpacking</t>
+          <t>晶体管Transistor</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>901MB</t>
+          <t>3.1G</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3.6h</t>
+          <t>6h</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1944,12 +1944,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>信使The Messenger</t>
+          <t>拆包装Unpacking</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1.1GB</t>
+          <t>901MB</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>11.5 h</t>
+          <t>3.6h</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1971,12 +1971,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>这儿没游戏：错误的维度There Is No Game: Wrong Dimension</t>
+          <t>信使The Messenger</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>495MB</t>
+          <t>1.1GB</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>5h</t>
+          <t>11.5 h</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1998,12 +1998,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>看火人Firewatch</t>
+          <t>这儿没游戏：错误的维度There Is No Game: Wrong Dimension</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2.1GB</t>
+          <t>495MB</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4h</t>
+          <t>5h</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2025,12 +2025,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>勇闯宝石山Grindstone</t>
+          <t>看火人Firewatch</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1.8GB</t>
+          <t>2.1GB</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>30h</t>
+          <t>4h</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2052,12 +2052,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>奥力奥力世界OlliOlli World</t>
+          <t>勇闯宝石山Grindstone</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2.6GB</t>
+          <t>1.8GB</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>5.7h</t>
+          <t>30h</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2079,22 +2079,22 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>胡闹厨房 全都好吃Overcooked! All You Can Eat</t>
+          <t>奥力奥力世界OlliOlli World</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>12.7GB</t>
+          <t>2.6GB</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>5.7h</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2106,22 +2106,22 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>塞尔达传说：织梦岛The Legend of Zelda: Link's Awakening</t>
+          <t>胡闹厨房 全都好吃Overcooked! All You Can Eat</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5.9G</t>
+          <t>12.7GB</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>14h</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2133,22 +2133,22 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>挺进地牢Enter the Gungeon</t>
+          <t>塞尔达传说：织梦岛The Legend of Zelda: Link's Awakening</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>443MB</t>
+          <t>5.9G</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>21.5h</t>
+          <t>14h</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2160,22 +2160,22 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>墨西哥英雄大混战2Guacamelee! 2</t>
+          <t>挺进地牢Enter the Gungeon</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2.2GB</t>
+          <t>443MB</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>7h</t>
+          <t>21.5h</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2187,22 +2187,22 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>龙珠战士ZDRAGON BALL FighterZ</t>
+          <t>墨西哥英雄大混战2Guacamelee! 2</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>9.7GB</t>
+          <t>2.2GB</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1-6</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>12h</t>
+          <t>7h</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2214,22 +2214,22 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>异界锁链ASTRAL CHAIN</t>
+          <t>龙珠战士ZDRAGON BALL FighterZ</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>9.8GB</t>
+          <t>9.7GB</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>20.5h</t>
+          <t>12h</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2241,12 +2241,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>茶杯头Cuphead</t>
+          <t>异界锁链ASTRAL CHAIN</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3.3GB</t>
+          <t>9.8GB</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>10.5h</t>
+          <t>20.5h</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2268,22 +2268,22 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>星露谷物语Stardew Valley</t>
+          <t>茶杯头Cuphead</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1.5G</t>
+          <t>3.3GB</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>52.5h</t>
+          <t>10.5h</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2295,49 +2295,49 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>恐怖美术馆Ib</t>
+          <t>星露谷物语Stardew Valley</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.5G</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>52.5h</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>87</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>怒之铁拳4Streets of Rage 4</t>
+          <t>恐怖美术馆Ib</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3.3GB</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>3h</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2349,22 +2349,22 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>马力欧 + 疯狂兔子 希望之星Mario + Rabbids Sparks of Hope</t>
+          <t>怒之铁拳4Streets of Rage 4</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>7.3GB</t>
+          <t>3.3GB</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3h</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2376,12 +2376,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>蓓优妮塔3Bayonetta 3</t>
+          <t>马力欧 + 疯狂兔子 希望之星Mario + Rabbids Sparks of Hope</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>15GB</t>
+          <t>7.3GB</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>13.2h</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2403,22 +2403,22 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>小人物拯救世界Nobody Saves the World</t>
+          <t>蓓优妮塔3Bayonetta 3</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>729 MB</t>
+          <t>15GB</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>15.1h</t>
+          <t>13.2h</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2430,12 +2430,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>红莲四羽 世界爆发Crimzon Clover - World EXplosion</t>
+          <t>小人物拯救世界Nobody Saves the World</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>747MB</t>
+          <t>729 MB</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>15.1h</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2457,22 +2457,22 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>尖塔骑兵Slay the Spire</t>
+          <t>红莲四羽 世界爆发Crimzon Clover - World EXplosion</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>532MB</t>
+          <t>747MB</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>11h</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2484,12 +2484,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>最终幻想XII：黄道年代FINAL FANTASY XII: THE ZODIAC AGE</t>
+          <t>尖塔骑兵Slay the Spire</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>12.7GB</t>
+          <t>532MB</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>40.5h</t>
+          <t>11h</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2511,22 +2511,22 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>迷你地铁Mini Metro</t>
+          <t>最终幻想XII：黄道年代FINAL FANTASY XII: THE ZODIAC AGE</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>211MB</t>
+          <t>12.7GB</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5.5h</t>
+          <t>40.5h</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2538,22 +2538,22 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>堇的天空Sumire</t>
+          <t>迷你地铁Mini Metro</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2.6GB</t>
+          <t>211MB</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2.5h</t>
+          <t>5.5h</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2565,22 +2565,22 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>暴徒猎手Huntdown</t>
+          <t>堇的天空Sumire</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1.2GB</t>
+          <t>2.6GB</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>5.5h</t>
+          <t>2.5h</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2592,22 +2592,22 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>AI：梦境档案AI: THE SOMNIUM FILES</t>
+          <t>暴徒猎手Huntdown</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>10.3 GB</t>
+          <t>1.2GB</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>23.5h</t>
+          <t>5.5h</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2619,12 +2619,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>奥伯拉丁的回归Return of the Obra Dinn</t>
+          <t>AI：梦境档案AI: THE SOMNIUM FILES</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2GB</t>
+          <t>10.3 GB</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>8h</t>
+          <t>23.5h</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2646,22 +2646,22 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>节奏地牢Crypt of the NecroDancer: Nintendo Switch Edition</t>
+          <t>奥伯拉丁的回归Return of the Obra Dinn</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1.8GB</t>
+          <t>2GB</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8h</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2673,22 +2673,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>文明 6Sid Meier's Civilization VI</t>
+          <t>节奏地牢Crypt of the NecroDancer: Nintendo Switch Edition</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>8.4GB</t>
+          <t>1.8GB</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>22h</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2700,22 +2700,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>路易吉洋馆3Luigi's Mansion 3</t>
+          <t>文明 6Sid Meier's Civilization VI</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7.4 GB</t>
+          <t>8.4GB</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1-8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>13.1h</t>
+          <t>22h</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2727,39 +2727,39 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>幽灵诡计Ghost Trick: Phantom Detective</t>
+          <t>路易吉洋馆3Luigi's Mansion 3</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2.9GB</t>
+          <t>7.4 GB</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1-8</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>12.1h</t>
+          <t>13.1h</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>86</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>铲子骑士：挖掘Shovel Knight Dig</t>
+          <t>幽灵诡计Ghost Trick: Phantom Detective</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2.9GB</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2769,7 +2769,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>12.1h</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2781,12 +2781,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>AI：梦境档案 涅槃开始AI:The Somnium Files - nirvanA Initiative</t>
+          <t>铲子骑士：挖掘Shovel Knight Dig</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>11.6GB</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>27.5h</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2808,22 +2808,22 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>凯登丝勇闯海拉鲁：死灵舞师地牢 塞尔达传说 合作钜献Cadence of Hyrule – Crypt of the NecroDancer Featuring The Legend of Zelda</t>
+          <t>AI：梦境档案 涅槃开始AI:The Somnium Files - nirvanA Initiative</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1.7GB</t>
+          <t>11.6GB</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>27.5h</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2835,12 +2835,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>马力欧+疯狂兔子：王国之战Mario + Rabbids Kingdom Battle</t>
+          <t>凯登丝勇闯海拉鲁：死灵舞师地牢 塞尔达传说 合作钜献Cadence of Hyrule – Crypt of the NecroDancer Featuring The Legend of Zelda</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2.9GB</t>
+          <t>1.7GB</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>21.5h</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2862,22 +2862,22 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>最终幻想 X/X-2 HD 重制版FINAL FANTASY X/X-2 HD Remaster</t>
+          <t>马力欧+疯狂兔子：王国之战Mario + Rabbids Kingdom Battle</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>27GB</t>
+          <t>2.9GB</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>21.5h</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2889,22 +2889,22 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>星之卡比 探索发现Kirby and the Forgotten Land</t>
+          <t>最终幻想 X/X-2 HD 重制版FINAL FANTASY X/X-2 HD Remaster</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>5.8 GB</t>
+          <t>27GB</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>10.3h</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2916,22 +2916,22 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>铲子骑士：磨难之灵Shovel Knight: Specter of Torment</t>
+          <t>星之卡比 探索发现Kirby and the Forgotten Land</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>248MB</t>
+          <t>5.8 GB</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>4.5h</t>
+          <t>10.3h</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2943,12 +2943,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>孤山：下山Lonely Mountains: Downhill</t>
+          <t>铲子骑士：磨难之灵Shovel Knight: Specter of Torment</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1.1GB</t>
+          <t>248MB</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>6h</t>
+          <t>4.5h</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2970,12 +2970,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>命运石之门：精英STEINS;GATE ELITE</t>
+          <t>孤山：下山Lonely Mountains: Downhill</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>7.5GB</t>
+          <t>1.1GB</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>6h</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2997,12 +2997,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>暗黑地牢Darkest Dungeon</t>
+          <t>命运石之门：精英STEINS;GATE ELITE</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2.4GB</t>
+          <t>7.5GB</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>54h</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3024,12 +3024,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>缠绕之塔Tangle Tower</t>
+          <t>暗黑地牢Darkest Dungeon</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>783MB</t>
+          <t>2.4GB</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>5.5h</t>
+          <t>54h</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3051,22 +3051,22 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>勇者斗恶龙：创世小玩家2DRAGON QUEST BUILDERS 2</t>
+          <t>缠绕之塔Tangle Tower</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1.8GB</t>
+          <t>783MB</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>55.5h</t>
+          <t>5.5h</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3078,22 +3078,22 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>皮克敏 3 豪华版Pikmin 3 Deluxe</t>
+          <t>勇者斗恶龙：创世小玩家2DRAGON QUEST BUILDERS 2</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>6.51GB</t>
+          <t>1.8GB</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>10h</t>
+          <t>55.5h</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3105,22 +3105,22 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>心跳文学俱乐部 Plus！Doki Doki Literature Club Plus!</t>
+          <t>皮克敏 3 豪华版Pikmin 3 Deluxe</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1.2GB</t>
+          <t>6.51GB</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>4h</t>
+          <t>10h</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3132,12 +3132,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>双点医院Two Point Hospital</t>
+          <t>心跳文学俱乐部 Plus！Doki Doki Literature Club Plus!</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2.19GB</t>
+          <t>1.2GB</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>40h</t>
+          <t>4h</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
